--- a/transporter/map_object_position.xlsx
+++ b/transporter/map_object_position.xlsx
@@ -1,37 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\transporter\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0527DBE-52C9-4A3B-9E4D-B7085E13B2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="7980" yWindow="4680" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>stockyard_no</t>
+  </si>
+  <si>
+    <t>stockyard_x</t>
+  </si>
+  <si>
+    <t>stockyard_y</t>
+  </si>
+  <si>
+    <t>intersection_no</t>
+  </si>
+  <si>
+    <t>intersection_x</t>
+  </si>
+  <si>
+    <t>intersection_y</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,94 +84,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -421,792 +408,786 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>stockyard_no</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>stockyard_x</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>stockyard_y</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>intersection_no</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>intersection_x</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>intersection_y</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>37</v>
       </c>
-      <c r="E2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E2">
+        <v>1000</v>
+      </c>
+      <c r="F2">
         <v>200</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>200</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>38</v>
       </c>
-      <c r="E3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3">
+        <v>1000</v>
+      </c>
+      <c r="F3">
         <v>300</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>39</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>600</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>300</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>900</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>200</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>40</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>600</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>500</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1100</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>200</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>41</v>
       </c>
-      <c r="E6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E6">
+        <v>1000</v>
+      </c>
+      <c r="F6">
         <v>500</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>900</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>300</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>42</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>1200</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>500</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1100</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>300</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>43</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>1200</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>600</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>900</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>500</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>44</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>1200</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>700</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1100</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>500</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>45</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>600</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>800</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>1300</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>600</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>46</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>1200</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>800</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1500</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>700</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>47</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>600</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>900</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>600</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>600</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>48</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>800</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>900</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>700</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>900</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>49</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>800</v>
       </c>
-      <c r="F14" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="F14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>900</v>
       </c>
-      <c r="C15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15">
+        <v>1000</v>
+      </c>
+      <c r="D15">
         <v>50</v>
       </c>
-      <c r="E15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="E15">
+        <v>1000</v>
+      </c>
+      <c r="F15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>1300</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>800</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>51</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>1200</v>
       </c>
-      <c r="F16" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="F16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>1500</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>800</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>52</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>1200</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>900</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>1200</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>1100</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>53</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>1400</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>900</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>1300</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>1100</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>54</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>1400</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>800</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>1200</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>1200</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>55</v>
       </c>
-      <c r="E20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E20">
+        <v>1000</v>
+      </c>
+      <c r="F20">
         <v>1300</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>1300</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>1200</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>56</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>1300</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>1300</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>2500</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>57</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>2200</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>1300</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>1900</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>300</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>58</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>2200</v>
       </c>
-      <c r="F23" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="F23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>2200</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>300</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>59</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>2200</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>800</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>2400</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>500</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>60</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>1900</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>800</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1900</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>700</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>61</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>1900</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>500</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>2200</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>700</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>62</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>1900</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>100</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>2600</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>600</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>63</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>2200</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>100</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>2700</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>700</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>64</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>2500</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>100</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>2300</v>
       </c>
-      <c r="C30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="C30">
+        <v>1000</v>
+      </c>
+      <c r="D30">
         <v>65</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>2500</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>500</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>2500</v>
       </c>
-      <c r="C31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31">
+        <v>1000</v>
+      </c>
+      <c r="D31">
         <v>66</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>2200</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>500</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>2300</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>1200</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>67</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>2700</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>800</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>2500</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>1200</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>68</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>2900</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>800</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>2900</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>700</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>69</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>3000</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>800</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>3000</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>500</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>70</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>2700</v>
       </c>
-      <c r="F35" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="F35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>2800</v>
       </c>
-      <c r="C36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="C36">
+        <v>1000</v>
+      </c>
+      <c r="D36">
         <v>71</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>3000</v>
       </c>
-      <c r="F36" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="F36">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>2900</v>
       </c>
-      <c r="C37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="C37">
+        <v>1000</v>
+      </c>
+      <c r="D37">
         <v>72</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>2700</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>1300</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>2800</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>1300</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>73</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>3000</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>1300</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>